--- a/Dynamics of Atmospheric Flight/Project_PartIV/Dynamic Mode Glider/A17_CD_Sheet.xlsx
+++ b/Dynamics of Atmospheric Flight/Project_PartIV/Dynamic Mode Glider/A17_CD_Sheet.xlsx
@@ -1,17 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chees\Desktop\USU\Machine_Learning\Spring_2024\Dynamics of Atmospheric Flight\Project_PartIV\Dynamic Mode Glider\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C364A39-1DAE-4E2F-9744-C5425809BF7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="15370" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -22,65 +38,35 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t xml:space="preserve">Alpha</t>
+    <t>Alpha</t>
   </si>
   <si>
-    <t xml:space="preserve">CL</t>
+    <t>CL</t>
   </si>
   <si>
-    <t xml:space="preserve">CD</t>
+    <t>CD</t>
   </si>
   <si>
-    <t xml:space="preserve">CD_True</t>
+    <t>CD_True</t>
   </si>
   <si>
-    <t xml:space="preserve">CD_0_fuse</t>
+    <t>CD_0_fuse</t>
   </si>
   <si>
-    <t xml:space="preserve">-C20.3344</t>
+    <t>-C20.3344</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF595959"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF595959"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -92,7 +78,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -100,45 +86,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -197,131 +155,146 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1400" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Aptos Narrow"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0" sz="1400" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Aptos Narrow"/>
-              </a:rPr>
-              <a:t>CD versus CL</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
-        <a:ln w="0">
+        <a:ln>
           <a:noFill/>
         </a:ln>
+        <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>"CD versus CL"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>CD versus CL</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="156082"/>
-            </a:solidFill>
-            <a:ln w="25560">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
+              <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="156082"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="square"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Aptos Narrow"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator>; </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:trendline>
             <c:spPr>
-              <a:ln cap="rnd" w="19080">
+              <a:ln w="19050" cap="rnd">
                 <a:solidFill>
-                  <a:srgbClr val="156082"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
                 <a:prstDash val="sysDot"/>
-                <a:round/>
               </a:ln>
+              <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="poly"/>
             <c:order val="2"/>
-            <c:forward val="0"/>
-            <c:backward val="0"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -330,19 +303,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.3284</c:v>
+                  <c:v>0.32840000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5318</c:v>
+                  <c:v>0.53180000000000005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.7313</c:v>
+                  <c:v>0.73129999999999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.9339</c:v>
+                  <c:v>0.93389999999999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1398</c:v>
+                  <c:v>1.1397999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1.3491</c:v>
@@ -357,33 +330,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.01423</c:v>
+                  <c:v>1.423E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.01653</c:v>
+                  <c:v>1.653E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.02103</c:v>
+                  <c:v>2.103E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.02783</c:v>
+                  <c:v>2.7830000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.03703</c:v>
+                  <c:v>3.703E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.04883</c:v>
+                  <c:v>4.8829999999999998E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-02DD-47E8-B876-9107E52FFC57}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
-        <c:axId val="70511923"/>
-        <c:axId val="36053491"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="996220735"/>
+        <c:axId val="996230815"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="70511923"/>
+        <c:axId val="996220735"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -391,46 +377,61 @@
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln w="9360">
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="9360">
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:srgbClr val="bfbfbf"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:round/>
           </a:ln>
+          <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:srgbClr val="595959"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="Aptos Narrow"/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36053491"/>
+        <c:crossAx val="996230815"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="36053491"/>
+        <c:axId val="996230815"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -438,91 +439,696 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln w="9360">
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="9360">
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:srgbClr val="bfbfbf"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:round/>
           </a:ln>
+          <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:srgbClr val="595959"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="Aptos Narrow"/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70511923"/>
+        <c:crossAx val="996220735"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln w="0">
+        <a:ln>
           <a:noFill/>
         </a:ln>
+        <a:effectLst/>
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:schemeClr val="bg1"/>
     </a:solidFill>
-    <a:ln w="9360">
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
       </a:solidFill>
       <a:round/>
     </a:ln>
+    <a:effectLst/>
   </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="oneCell">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>341640</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>130175</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>143640</xdr:rowOff>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>36360</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>479425</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>143280</xdr:rowOff>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart 1"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D652DC90-BCCC-02CA-4919-9BE0BEDC4F9C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1029240" y="2496240"/>
-        <a:ext cx="5196600" cy="2714400"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -536,54 +1142,54 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0e2841"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="e8e8e8"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="e97132"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196b24"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0f9ed5"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="a02b93"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4ea72e"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607d"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -615,7 +1221,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -639,7 +1245,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -699,150 +1305,144 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M10" activeCellId="0" sqref="M10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2">
         <v>-5</v>
       </c>
-      <c r="C2" s="0" t="n">
-        <v>0.3284</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>0.0114</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <f aca="false">D2+$G$2</f>
-        <v>0.01423</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <v>0.00283</v>
+      <c r="C2">
+        <v>0.32840000000000003</v>
+      </c>
+      <c r="D2">
+        <v>1.14E-2</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:E7" si="0">D2+$G$2</f>
+        <v>1.423E-2</v>
+      </c>
+      <c r="G2">
+        <v>2.8300000000000001E-3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3">
         <v>-3</v>
       </c>
-      <c r="C3" s="0" t="n">
-        <v>0.5318</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>0.0137</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <f aca="false">D3+$G$2</f>
-        <v>0.01653</v>
+      <c r="C3">
+        <v>0.53180000000000005</v>
+      </c>
+      <c r="D3">
+        <v>1.37E-2</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>1.653E-2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4">
         <v>-1</v>
       </c>
-      <c r="C4" s="0" t="n">
-        <v>0.7313</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>0.0182</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <f aca="false">D4+$G$2</f>
-        <v>0.02103</v>
+      <c r="C4">
+        <v>0.73129999999999995</v>
+      </c>
+      <c r="D4">
+        <v>1.8200000000000001E-2</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>2.103E-2</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5">
         <v>1</v>
       </c>
-      <c r="C5" s="0" t="n">
-        <v>0.9339</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>0.025</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <f aca="false">D5+$G$2</f>
-        <v>0.02783</v>
+      <c r="C5">
+        <v>0.93389999999999995</v>
+      </c>
+      <c r="D5">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>2.7830000000000001E-2</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6">
         <v>3</v>
       </c>
-      <c r="C6" s="0" t="n">
-        <v>1.1398</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>0.0342</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <f aca="false">D6+$G$2</f>
-        <v>0.03703</v>
+      <c r="C6">
+        <v>1.1397999999999999</v>
+      </c>
+      <c r="D6">
+        <v>3.4200000000000001E-2</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>3.703E-2</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7">
         <v>5</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7">
         <v>1.3491</v>
       </c>
-      <c r="D7" s="0" t="n">
-        <v>0.046</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <f aca="false">D7+$G$2</f>
-        <v>0.04883</v>
+      <c r="D7">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>4.8829999999999998E-2</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="0" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C10" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>